--- a/DMPG_data.xlsx
+++ b/DMPG_data.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Luong\Desktop\bpro\FFskeleton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45352B-E83D-4AB2-8566-7B5196DD6C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973BB46E-A80C-4C9A-9CA7-049CC1288626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2610" windowWidth="14295" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2805" windowWidth="14295" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fulldatabase_MCQ_NA_3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ParticipantID</t>
   </si>
@@ -48,9 +37,15 @@
     <t>55d1a675cc2b18000c2be70a</t>
   </si>
   <si>
+    <t>Man</t>
+  </si>
+  <si>
     <t>55dd3faa50a1f7001190e340</t>
   </si>
   <si>
+    <t>Woman</t>
+  </si>
+  <si>
     <t>563da4c4ef3f15000bb92b64</t>
   </si>
   <si>
@@ -81,7 +76,10 @@
     <t>599ddb63bd442800019b91e2</t>
   </si>
   <si>
-    <t>59c418c45364260001dc4ea0</t>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
   <si>
     <t>RiskQuestion</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>Advanced</t>
+  </si>
+  <si>
+    <t>NB</t>
   </si>
 </sst>
 </file>
@@ -580,9 +581,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -939,16 +943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I447"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,470 +959,450 @@
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
+      <c r="K1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>26</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6">
         <v>7</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
         <v>6</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>29</v>
-      </c>
-      <c r="G8">
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>29</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>27</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>31</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>32</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="1"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
